--- a/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>35,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,54; 38,6</t>
+          <t>23,21; 31,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,91; 27,36</t>
+          <t>16,35; 25,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,71</t>
+          <t>25,87; 34,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,87; 45,34</t>
+          <t>19,96; 26,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,02; 33,12</t>
+          <t>25,46; 32,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,08; 20,77</t>
+          <t>35,72; 44,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 40,85</t>
+          <t>22,32; 27,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,23; 29,97</t>
+          <t>22,92; 28,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 20,74</t>
+          <t>33,13; 38,78</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,87%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,4</t>
+          <t>15,02; 18,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 12,01</t>
+          <t>5,1; 11,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,02</t>
+          <t>11,92; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 17,77</t>
+          <t>11,52; 14,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 29,28</t>
+          <t>8,44; 48,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,11</t>
+          <t>12,34; 16,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,9; 17,59</t>
+          <t>13,66; 15,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 21,05</t>
+          <t>8,22; 36,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 14,78</t>
+          <t>12,73; 15,16</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 17,39</t>
+          <t>7,16; 11,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,41</t>
+          <t>6,36; 10,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 10,53</t>
+          <t>9,65; 14,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,78</t>
+          <t>4,5; 7,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,31</t>
+          <t>8,56; 12,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,62</t>
+          <t>5,84; 9,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,1</t>
+          <t>6,16; 8,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 10,63</t>
+          <t>7,98; 11,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 7,78</t>
+          <t>8,26; 11,4</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,09</t>
+          <t>15,03; 17,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 13,52</t>
+          <t>6,5; 11,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,16</t>
+          <t>14,3; 17,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 21,31</t>
+          <t>11,79; 13,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 25,32</t>
+          <t>12,66; 43,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 12,54</t>
+          <t>15,5; 18,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 20,64</t>
+          <t>13,65; 15,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 20,95</t>
+          <t>10,93; 32,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 13,97</t>
+          <t>15,37; 17,29</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el colesterol</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65802</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29603</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>113571</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>109950</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53500</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>160942</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>175752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20440; 27925</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37325; 57902</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55828; 75184</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25498; 33920</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100600; 127147</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>97756; 120666</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48174; 60110</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>142897; 178424</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>162185; 189810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75114</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>120986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>116489</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55037</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>311362</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>123455</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>130151</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>432348</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>239944</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>68126; 82427</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71854; 157191</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>102747; 130577</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>49754; 61285</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116894; 674121</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>107118; 139012</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120940; 139754</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>229840; 1021199</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>220318; 262378</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13680</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39293</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11260</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46765</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31719</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24940</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>86058</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>76886</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10861; 16748</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29263; 50474</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36539; 56608</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8744; 14220</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37960; 56454</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24327; 40604</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21296; 29683</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72102; 100646</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>65691; 90649</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>112690</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>207649</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>227458</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>95901</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>471699</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>265124</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>208591</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>679348</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>492582</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>104155; 121637</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>136288; 247964</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>208278; 248186</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88862; 104314</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>281654; 975052</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>241591; 288172</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>197518; 221042</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>472307; 1407879</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>463304; 521254</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,21; 31,71</t>
+          <t>20,68; 28,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,36</t>
+          <t>16,01; 25,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 26,55</t>
+          <t>20,21; 26,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,46; 32,18</t>
+          <t>25,13; 32,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,32; 27,85</t>
+          <t>21,54; 26,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,62</t>
+          <t>22,93; 28,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 18,18</t>
+          <t>14,12; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,15</t>
+          <t>4,66; 11,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,19</t>
+          <t>11,15; 13,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 48,64</t>
+          <t>8,54; 53,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 15,79</t>
+          <t>12,99; 14,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 36,53</t>
+          <t>8,11; 36,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,05</t>
+          <t>7,0; 10,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,98</t>
+          <t>6,42; 11,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,32</t>
+          <t>4,45; 7,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,73</t>
+          <t>8,56; 13,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,58</t>
+          <t>6,02; 8,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,14</t>
+          <t>7,84; 11,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 17,55</t>
+          <t>13,82; 16,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,82</t>
+          <t>6,65; 11,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 13,84</t>
+          <t>11,21; 13,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 43,84</t>
+          <t>12,78; 42,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 15,28</t>
+          <t>12,73; 14,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 32,58</t>
+          <t>10,96; 29,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23896</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29603</t>
+          <t>28405</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53500</t>
+          <t>48579</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20440; 27925</t>
+          <t>17070; 23434</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37325; 57902</t>
+          <t>36547; 58379</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25498; 33920</t>
+          <t>24549; 32111</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100600; 127147</t>
+          <t>99291; 126561</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48174; 60110</t>
+          <t>43934; 53793</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>142897; 178424</t>
+          <t>142926; 179223</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>75114</t>
+          <t>71515</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55037</t>
+          <t>55303</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>130151</t>
+          <t>126818</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68126; 82427</t>
+          <t>65177; 78694</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71854; 157191</t>
+          <t>65663; 155192</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49754; 61285</t>
+          <t>49561; 61484</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>116894; 674121</t>
+          <t>118346; 741421</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>120940; 139754</t>
+          <t>117670; 135753</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>229840; 1021199</t>
+          <t>226614; 1031123</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13680</t>
+          <t>15407</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11260</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24940</t>
+          <t>28626</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10861; 16748</t>
+          <t>12282; 19190</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29263; 50474</t>
+          <t>29533; 50564</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8744; 14220</t>
+          <t>10156; 16276</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37960; 56454</t>
+          <t>37952; 58046</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21296; 29683</t>
+          <t>24298; 33411</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>72102; 100646</t>
+          <t>70814; 101617</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>112690</t>
+          <t>107097</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95901</t>
+          <t>96927</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>208591</t>
+          <t>204023</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>104155; 121637</t>
+          <t>99463; 116104</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>136288; 247964</t>
+          <t>139439; 245180</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>88862; 104314</t>
+          <t>88952; 105035</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>281654; 975052</t>
+          <t>284288; 937618</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>197518; 221042</t>
+          <t>192624; 216100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>472307; 1407879</t>
+          <t>473528; 1294137</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>24,44%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>30,49%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40,17%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>23,39%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>28,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,17%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35,91%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>23,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>25,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>35,91%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>15,41; 24,61</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25,87; 34,84</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>20,68; 28,39</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 25,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>25,87; 34,84</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>25,46; 32,07</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35,72; 44,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>20,21; 26,44</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>25,13; 32,03</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>35,72; 44,09</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>22,83; 28,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33,13; 38,78</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>21,54; 26,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>22,93; 28,75</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>33,13; 38,78</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>15,49%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,58%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>12,45%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>14,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8,56; 11,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 15,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>14,12; 17,05</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 11,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>11,92; 15,15</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>8,11; 10,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12,34; 16,01</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>11,15; 13,84</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,54; 53,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>12,34; 16,01</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>8,79; 10,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 15,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>12,99; 14,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 36,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>12,73; 15,16</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>8,78%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,93%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,8%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>7,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,53%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,4; 10,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 14,95</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>7,0; 10,93</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,42; 11,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9,65; 14,95</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>8,79; 13,43</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 9,74</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,45; 7,14</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,56; 13,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 9,74</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>7,98; 11,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8,26; 11,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>6,02; 8,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 11,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,26; 11,4</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>14,88%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>12,21%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>21,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,01%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>13,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9,74; 12,41</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,04</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>13,82; 16,13</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 11,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 17,04</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>12,35; 14,73</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15,5; 18,49</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>11,21; 13,23</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>12,78; 42,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 18,49</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>11,43; 13,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 17,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>12,73; 14,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 29,94</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15,37; 17,29</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>130</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>308</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>466</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>50515</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>65802</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>20174</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>47371</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>65802</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>124883</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>109950</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>28405</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>113571</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>109950</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>175398</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>175752</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>48579</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>160942</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>175752</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>39356; 62844</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55828; 75184</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17070; 23434</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>36547; 58379</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>55828; 75184</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>110122; 138743</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97756; 120666</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>24549; 32111</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>99291; 126561</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>97756; 120666</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>157041; 195549</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>162185; 189810</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>43934; 53793</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>142926; 179223</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>162185; 189810</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>426</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>329</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>755</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>535</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>130277</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>116489</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>71515</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>120986</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>116489</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>117706</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123455</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>55303</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>311362</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>123455</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>247983</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>239944</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>126818</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>432348</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>239944</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>110281; 151305</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>102747; 130577</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>65177; 78694</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>65663; 155192</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>102747; 130577</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>103023; 136772</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107118; 139012</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>49561; 61484</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>118346; 741421</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>107118; 139012</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>224874; 276458</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>220318; 262378</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>117670; 135753</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>226614; 1031123</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>220318; 262378</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>155</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>43502</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>15407</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>39293</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>45167</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>53682</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31719</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13219</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>46765</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31719</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>97184</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76886</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>28626</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>86058</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>76886</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>32609; 55383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36539; 56608</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>12282; 19190</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>29533; 50564</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>36539; 56608</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>43606; 66625</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24327; 40604</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10156; 16276</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>37952; 58046</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>24327; 40604</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>80301; 113552</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65691; 90649</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>24298; 33411</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>70814; 101617</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>65691; 90649</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>640</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>578</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1218</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1158</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>224295</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>227458</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>107097</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>207649</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>227458</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>296270</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>265124</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>96927</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>471699</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>265124</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>520565</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>492582</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>204023</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>679348</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>492582</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>199930; 254769</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>208278; 248186</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>99463; 116104</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>139439; 245180</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>208278; 248186</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>271535; 323998</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>241591; 288172</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>88952; 105035</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>284288; 937618</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>241591; 288172</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>485890; 562332</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>463304; 521254</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>192624; 216100</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>473528; 1294137</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>463304; 521254</t>
         </is>
       </c>
     </row>
